--- a/docs/StructureDefinition-VASurgicalPathologyReport.xlsx
+++ b/docs/StructureDefinition-VASurgicalPathologyReport.xlsx
@@ -346,7 +346,31 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>referencedDocument/display</t>
+    <t>referencedDocument-uri</t>
+  </si>
+  <si>
+    <t>TIU ENTRY POINTER SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/referencedDocument.uri}
+</t>
+  </si>
+  <si>
+    <t>This field is a pointer to the TIU DOCUMENT (#8925) file.  It stores the pointer for a surgical pathology SF515 that has been electronically signed and stored in TIU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>undefined @TIU ENTRY POINTER SP 63.19-1</t>
+  </si>
+  <si>
+    <t>referencedDocument-display</t>
   </si>
   <si>
     <t>TIU REFERENCE DATE/TIME - SP</t>
@@ -359,31 +383,7 @@
     <t>This is the date and time that the surgical pathology SF515 was stored in TIU. It will match the REFERENCE DATE (#1301) field of the corresponding document in the TIU DOCUMENT (#8925) file.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>undefined @TIU REFERENCE DATE/TIME - SP 63.19-.01</t>
-  </si>
-  <si>
-    <t>referencedDocument/uri</t>
-  </si>
-  <si>
-    <t>TIU ENTRY POINTER SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/referencedDocument.uri}
-</t>
-  </si>
-  <si>
-    <t>This field is a pointer to the TIU DOCUMENT (#8925) file.  It stores the pointer for a surgical pathology SF515 that has been electronically signed and stored in TIU.</t>
-  </si>
-  <si>
-    <t>undefined @TIU ENTRY POINTER SP 63.19-1</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -1290,7 +1290,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="30.15625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
